--- a/scripts/correlation/metric_df/AOL_metrics.xlsx
+++ b/scripts/correlation/metric_df/AOL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,41 +436,48 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>glycan</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>binding_score</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SASA_weighted</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SASA_weighted_max</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SASA_weighted_sum</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>weighted_mean_flexibility</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>3.20510157</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.104865982788988</v>
       </c>
       <c r="C2" t="n">
         <v>2.104865982788988</v>
@@ -479,20 +486,25 @@
         <v>2.104865982788988</v>
       </c>
       <c r="E2" t="n">
+        <v>2.104865982788988</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.286544565567667</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-3)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>3.35367651</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.12907997324471</v>
       </c>
       <c r="C3" t="n">
         <v>2.12907997324471</v>
@@ -501,20 +513,25 @@
         <v>2.12907997324471</v>
       </c>
       <c r="E3" t="n">
+        <v>2.12907997324471</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.6843510982235121</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-0.460031619</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.941469262417412</v>
       </c>
       <c r="C4" t="n">
         <v>1.941469262417412</v>
@@ -523,27 +540,447 @@
         <v>1.941469262417412</v>
       </c>
       <c r="E4" t="n">
+        <v>1.941469262417412</v>
+      </c>
+      <c r="F4" t="n">
         <v>11.43067193333333</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.336076836</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.824899080092367</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.824899080092367</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.824899080092367</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9583112399999986</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.460031619</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.910583370180939</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.910583370180939</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.910583370180939</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.652002525252526</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>-0.360696993</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C7" t="n">
         <v>2.273759042726899</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D7" t="n">
         <v>2.273759042726899</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E7" t="n">
         <v>2.273759042726899</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F7" t="n">
         <v>1.908781921807819</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.786197359</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.170830920556838</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.170830920556838</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.170830920556838</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9650379437943786</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.460031619</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.955767986496258</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.955767986496258</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.955767986496258</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.219634240000001</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.460031619</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.074553668654954</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.074553668654954</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.074553668654954</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.404429833333334</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.460031619</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.677303481074935</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.677303481074935</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.677303481074935</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.229349533333337</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.870700891</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.132314839689439</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.132314839689439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.132314839689439</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.032800363369671</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.460031619</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.030365137387976</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.030365137387976</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.030365137387976</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.011923522352238</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.53933657</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.656675648076949</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.656675648076949</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.656675648076949</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24.56787435</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.677224031</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.032631731546139</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.032631731546139</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.032631731546139</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16.30643722294437</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.332505378</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.196111397777991</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.196111397777991</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.196111397777991</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17.01846274261463</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5.400185485</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.324045455484034</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.324045455484034</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.324045455484034</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.108746819999999</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4.710748179</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.091318093705922</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.091318093705922</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.091318093705922</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.061231499999998</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.360696993</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.237559254482525</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.237559254482525</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.237559254482525</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.303767476747673</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.470392839</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.680493591656133</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.680493591656133</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.680493591656133</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14.12716278372164</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.100117518</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.918932847975427</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.918932847975427</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.918932847975427</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.415934280000001</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>O</t>
         </is>

--- a/scripts/correlation/metric_df/AOL_metrics.xlsx
+++ b/scripts/correlation/metric_df/AOL_metrics.xlsx
@@ -557,16 +557,16 @@
         <v>-0.336076836</v>
       </c>
       <c r="C5" t="n">
-        <v>1.824899080092367</v>
+        <v>1.879699471262461</v>
       </c>
       <c r="D5" t="n">
-        <v>1.824899080092367</v>
+        <v>1.934499862432555</v>
       </c>
       <c r="E5" t="n">
-        <v>1.824899080092367</v>
+        <v>3.759398942524922</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9583112399999986</v>
+        <v>1.044442319999999</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -584,16 +584,16 @@
         <v>-0.460031619</v>
       </c>
       <c r="C6" t="n">
-        <v>1.910583370180939</v>
+        <v>1.888273611267678</v>
       </c>
       <c r="D6" t="n">
         <v>1.910583370180939</v>
       </c>
       <c r="E6" t="n">
-        <v>1.910583370180939</v>
+        <v>3.776547222535355</v>
       </c>
       <c r="F6" t="n">
-        <v>2.652002525252526</v>
+        <v>2.578956608160815</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -634,16 +634,16 @@
         <v>1.786197359</v>
       </c>
       <c r="C8" t="n">
-        <v>2.170830920556838</v>
+        <v>1.965284185598133</v>
       </c>
       <c r="D8" t="n">
         <v>2.170830920556838</v>
       </c>
       <c r="E8" t="n">
-        <v>2.170830920556838</v>
+        <v>3.930568371196265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9650379437943786</v>
+        <v>0.8258490849084912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -661,16 +661,16 @@
         <v>-0.460031619</v>
       </c>
       <c r="C9" t="n">
-        <v>1.955767986496258</v>
+        <v>2.42187151155289</v>
       </c>
       <c r="D9" t="n">
-        <v>1.955767986496258</v>
+        <v>2.42187151155289</v>
       </c>
       <c r="E9" t="n">
-        <v>1.955767986496258</v>
+        <v>2.42187151155289</v>
       </c>
       <c r="F9" t="n">
-        <v>2.219634240000001</v>
+        <v>2.654191240000004</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -707,16 +707,16 @@
         <v>-0.460031619</v>
       </c>
       <c r="C11" t="n">
-        <v>1.677303481074935</v>
+        <v>1.669857997159468</v>
       </c>
       <c r="D11" t="n">
         <v>1.677303481074935</v>
       </c>
       <c r="E11" t="n">
-        <v>1.677303481074935</v>
+        <v>3.339715994318936</v>
       </c>
       <c r="F11" t="n">
-        <v>3.229349533333337</v>
+        <v>4.275120000000004</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -780,16 +780,16 @@
         <v>1.53933657</v>
       </c>
       <c r="C14" t="n">
-        <v>1.656675648076949</v>
+        <v>1.724283590237959</v>
       </c>
       <c r="D14" t="n">
-        <v>1.656675648076949</v>
+        <v>1.724283590237959</v>
       </c>
       <c r="E14" t="n">
-        <v>1.656675648076949</v>
+        <v>1.724283590237959</v>
       </c>
       <c r="F14" t="n">
-        <v>24.56787435</v>
+        <v>13.79742215000001</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -807,16 +807,16 @@
         <v>1.677224031</v>
       </c>
       <c r="C15" t="n">
-        <v>2.032631731546139</v>
+        <v>1.777876934387052</v>
       </c>
       <c r="D15" t="n">
-        <v>2.032631731546139</v>
+        <v>1.777876934387052</v>
       </c>
       <c r="E15" t="n">
-        <v>2.032631731546139</v>
+        <v>1.777876934387052</v>
       </c>
       <c r="F15" t="n">
-        <v>16.30643722294437</v>
+        <v>9.090581741825813</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -834,16 +834,16 @@
         <v>1.332505378</v>
       </c>
       <c r="C16" t="n">
-        <v>2.196111397777991</v>
+        <v>1.86132352102596</v>
       </c>
       <c r="D16" t="n">
-        <v>2.196111397777991</v>
+        <v>1.86132352102596</v>
       </c>
       <c r="E16" t="n">
-        <v>2.196111397777991</v>
+        <v>1.86132352102596</v>
       </c>
       <c r="F16" t="n">
-        <v>17.01846274261463</v>
+        <v>7.212414914064149</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -915,16 +915,16 @@
         <v>-0.360696993</v>
       </c>
       <c r="C19" t="n">
-        <v>1.237559254482525</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="D19" t="n">
-        <v>1.237559254482525</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="E19" t="n">
-        <v>1.237559254482525</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="F19" t="n">
-        <v>1.303767476747673</v>
+        <v>3.604707245724574</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -942,16 +942,16 @@
         <v>1.470392839</v>
       </c>
       <c r="C20" t="n">
-        <v>1.680493591656133</v>
+        <v>1.5546402969027</v>
       </c>
       <c r="D20" t="n">
-        <v>1.680493591656133</v>
+        <v>1.5546402969027</v>
       </c>
       <c r="E20" t="n">
-        <v>1.680493591656133</v>
+        <v>1.5546402969027</v>
       </c>
       <c r="F20" t="n">
-        <v>14.12716278372164</v>
+        <v>12.78702099790021</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/AOL_metrics.xlsx
+++ b/scripts/correlation/metric_df/AOL_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>3.20510157</v>
       </c>
       <c r="C2" t="n">
-        <v>2.104865982788988</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.104865982788988</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.104865982788988</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.286544565567667</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         <v>3.35367651</v>
       </c>
       <c r="C3" t="n">
-        <v>2.12907997324471</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.12907997324471</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.12907997324471</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6843510982235121</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -557,16 +557,16 @@
         <v>-0.336076836</v>
       </c>
       <c r="C5" t="n">
-        <v>1.879699471262461</v>
+        <v>1.748402026921482</v>
       </c>
       <c r="D5" t="n">
-        <v>1.934499862432555</v>
+        <v>1.824899080092367</v>
       </c>
       <c r="E5" t="n">
-        <v>3.759398942524922</v>
+        <v>3.496804053842963</v>
       </c>
       <c r="F5" t="n">
-        <v>1.044442319999999</v>
+        <v>0.7469601100000001</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>-0.360696993</v>
       </c>
       <c r="C7" t="n">
-        <v>2.273759042726899</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.273759042726899</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.273759042726899</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.908781921807819</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -661,16 +661,16 @@
         <v>-0.460031619</v>
       </c>
       <c r="C9" t="n">
-        <v>2.42187151155289</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="D9" t="n">
-        <v>2.42187151155289</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="E9" t="n">
-        <v>2.42187151155289</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="F9" t="n">
-        <v>2.654191240000004</v>
+        <v>2.219634240000001</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -780,16 +780,16 @@
         <v>1.53933657</v>
       </c>
       <c r="C14" t="n">
-        <v>1.724283590237959</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="D14" t="n">
-        <v>1.724283590237959</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="E14" t="n">
-        <v>1.724283590237959</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="F14" t="n">
-        <v>13.79742215000001</v>
+        <v>24.56787435</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -807,16 +807,16 @@
         <v>1.677224031</v>
       </c>
       <c r="C15" t="n">
-        <v>1.777876934387052</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="D15" t="n">
-        <v>1.777876934387052</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="E15" t="n">
-        <v>1.777876934387052</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="F15" t="n">
-        <v>9.090581741825813</v>
+        <v>16.30643722294437</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -834,16 +834,16 @@
         <v>1.332505378</v>
       </c>
       <c r="C16" t="n">
-        <v>1.86132352102596</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="D16" t="n">
-        <v>1.86132352102596</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="E16" t="n">
-        <v>1.86132352102596</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="F16" t="n">
-        <v>7.212414914064149</v>
+        <v>17.01846274261463</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -915,16 +915,16 @@
         <v>-0.360696993</v>
       </c>
       <c r="C19" t="n">
-        <v>1.993078126869602</v>
+        <v>1.237559254482525</v>
       </c>
       <c r="D19" t="n">
-        <v>1.993078126869602</v>
+        <v>1.237559254482525</v>
       </c>
       <c r="E19" t="n">
-        <v>1.993078126869602</v>
+        <v>1.237559254482525</v>
       </c>
       <c r="F19" t="n">
-        <v>3.604707245724574</v>
+        <v>1.303767476747673</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -942,16 +942,16 @@
         <v>1.470392839</v>
       </c>
       <c r="C20" t="n">
-        <v>1.5546402969027</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="D20" t="n">
-        <v>1.5546402969027</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="E20" t="n">
-        <v>1.5546402969027</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="F20" t="n">
-        <v>12.78702099790021</v>
+        <v>14.12716278372164</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/AOL_metrics.xlsx
+++ b/scripts/correlation/metric_df/AOL_metrics.xlsx
@@ -545,7 +545,11 @@
       <c r="F4" t="n">
         <v>11.43067193333333</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,7 +599,11 @@
       <c r="F6" t="n">
         <v>2.578956608160815</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -672,7 +680,11 @@
       <c r="F9" t="n">
         <v>2.219634240000001</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -695,7 +707,11 @@
       <c r="F10" t="n">
         <v>6.404429833333334</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -718,7 +734,11 @@
       <c r="F11" t="n">
         <v>4.275120000000004</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -768,7 +788,11 @@
       <c r="F13" t="n">
         <v>6.011923522352238</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">

--- a/scripts/correlation/metric_df/AOL_metrics.xlsx
+++ b/scripts/correlation/metric_df/AOL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,16 +480,16 @@
         <v>3.20510157</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.104865982788988</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.104865982788988</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.104865982788988</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.286544565567667</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         <v>3.35367651</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.6843510982235121</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -527,104 +527,104 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.460031619</v>
+        <v>-0.336076836</v>
       </c>
       <c r="C4" t="n">
-        <v>1.941469262417412</v>
+        <v>1.879699471262461</v>
       </c>
       <c r="D4" t="n">
-        <v>1.941469262417412</v>
+        <v>1.934499862432555</v>
       </c>
       <c r="E4" t="n">
-        <v>1.941469262417412</v>
+        <v>3.759398942524922</v>
       </c>
       <c r="F4" t="n">
-        <v>11.43067193333333</v>
+        <v>1.044442319999999</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.336076836</v>
+        <v>-0.460031619</v>
       </c>
       <c r="C5" t="n">
-        <v>1.748402026921482</v>
+        <v>1.888273611267678</v>
       </c>
       <c r="D5" t="n">
-        <v>1.824899080092367</v>
+        <v>1.910583370180939</v>
       </c>
       <c r="E5" t="n">
-        <v>3.496804053842963</v>
+        <v>3.776547222535355</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7469601100000001</v>
+        <v>2.578956608160815</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.460031619</v>
+        <v>-0.360696993</v>
       </c>
       <c r="C6" t="n">
-        <v>1.888273611267678</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="D6" t="n">
-        <v>1.910583370180939</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="E6" t="n">
-        <v>3.776547222535355</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="F6" t="n">
-        <v>2.578956608160815</v>
+        <v>1.908781921807819</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.360696993</v>
+        <v>1.786197359</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.965284185598133</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.170830920556838</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3.930568371196265</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.8258490849084912</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -635,50 +635,50 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.786197359</v>
+        <v>-0.460031619</v>
       </c>
       <c r="C8" t="n">
-        <v>1.965284185598133</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="D8" t="n">
-        <v>2.170830920556838</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="E8" t="n">
-        <v>3.930568371196265</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8258490849084912</v>
+        <v>2.219634240000001</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>-0.460031619</v>
       </c>
       <c r="C9" t="n">
-        <v>1.955767986496258</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="D9" t="n">
-        <v>1.955767986496258</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="E9" t="n">
-        <v>1.955767986496258</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="F9" t="n">
-        <v>2.219634240000001</v>
+        <v>6.404429833333334</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -689,23 +689,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>-0.460031619</v>
       </c>
       <c r="C10" t="n">
-        <v>2.074553668654954</v>
+        <v>1.669857997159468</v>
       </c>
       <c r="D10" t="n">
-        <v>2.074553668654954</v>
+        <v>1.677303481074935</v>
       </c>
       <c r="E10" t="n">
-        <v>2.074553668654954</v>
+        <v>3.339715994318936</v>
       </c>
       <c r="F10" t="n">
-        <v>6.404429833333334</v>
+        <v>4.275120000000004</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -716,104 +716,104 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.460031619</v>
+        <v>0.870700891</v>
       </c>
       <c r="C11" t="n">
-        <v>1.669857997159468</v>
+        <v>2.132314839689439</v>
       </c>
       <c r="D11" t="n">
-        <v>1.677303481074935</v>
+        <v>2.132314839689439</v>
       </c>
       <c r="E11" t="n">
-        <v>3.339715994318936</v>
+        <v>2.132314839689439</v>
       </c>
       <c r="F11" t="n">
-        <v>4.275120000000004</v>
+        <v>1.032800363369671</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.870700891</v>
+        <v>-0.460031619</v>
       </c>
       <c r="C12" t="n">
-        <v>2.132314839689439</v>
+        <v>2.030365137387976</v>
       </c>
       <c r="D12" t="n">
-        <v>2.132314839689439</v>
+        <v>2.030365137387976</v>
       </c>
       <c r="E12" t="n">
-        <v>2.132314839689439</v>
+        <v>2.030365137387976</v>
       </c>
       <c r="F12" t="n">
-        <v>1.032800363369671</v>
+        <v>6.011923522352238</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.460031619</v>
+        <v>1.53933657</v>
       </c>
       <c r="C13" t="n">
-        <v>2.030365137387976</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="D13" t="n">
-        <v>2.030365137387976</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="E13" t="n">
-        <v>2.030365137387976</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="F13" t="n">
-        <v>6.011923522352238</v>
+        <v>24.56787435</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.53933657</v>
+        <v>1.677224031</v>
       </c>
       <c r="C14" t="n">
-        <v>1.656675648076949</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="D14" t="n">
-        <v>1.656675648076949</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="E14" t="n">
-        <v>1.656675648076949</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="F14" t="n">
-        <v>24.56787435</v>
+        <v>16.30643722294437</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -824,23 +824,23 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.677224031</v>
+        <v>1.332505378</v>
       </c>
       <c r="C15" t="n">
-        <v>2.032631731546139</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="D15" t="n">
-        <v>2.032631731546139</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="E15" t="n">
-        <v>2.032631731546139</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="F15" t="n">
-        <v>16.30643722294437</v>
+        <v>17.01846274261463</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -851,23 +851,23 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.332505378</v>
+        <v>5.400185485</v>
       </c>
       <c r="C16" t="n">
-        <v>2.196111397777991</v>
+        <v>2.324045455484034</v>
       </c>
       <c r="D16" t="n">
-        <v>2.196111397777991</v>
+        <v>2.324045455484034</v>
       </c>
       <c r="E16" t="n">
-        <v>2.196111397777991</v>
+        <v>2.324045455484034</v>
       </c>
       <c r="F16" t="n">
-        <v>17.01846274261463</v>
+        <v>2.108746819999999</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -878,23 +878,23 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.400185485</v>
+        <v>4.710748179</v>
       </c>
       <c r="C17" t="n">
-        <v>2.324045455484034</v>
+        <v>2.091318093705922</v>
       </c>
       <c r="D17" t="n">
-        <v>2.324045455484034</v>
+        <v>2.091318093705922</v>
       </c>
       <c r="E17" t="n">
-        <v>2.324045455484034</v>
+        <v>2.091318093705922</v>
       </c>
       <c r="F17" t="n">
-        <v>2.108746819999999</v>
+        <v>5.061231499999998</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -905,106 +905,79 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.710748179</v>
+        <v>-0.360696993</v>
       </c>
       <c r="C18" t="n">
-        <v>2.091318093705922</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="D18" t="n">
-        <v>2.091318093705922</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="E18" t="n">
-        <v>2.091318093705922</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="F18" t="n">
-        <v>5.061231499999998</v>
+        <v>3.604707245724574</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.360696993</v>
+        <v>1.470392839</v>
       </c>
       <c r="C19" t="n">
-        <v>1.237559254482525</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="D19" t="n">
-        <v>1.237559254482525</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="E19" t="n">
-        <v>1.237559254482525</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="F19" t="n">
-        <v>1.303767476747673</v>
+        <v>14.12716278372164</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.470392839</v>
+        <v>-0.100117518</v>
       </c>
       <c r="C20" t="n">
-        <v>1.680493591656133</v>
+        <v>1.918932847975427</v>
       </c>
       <c r="D20" t="n">
-        <v>1.680493591656133</v>
+        <v>1.918932847975427</v>
       </c>
       <c r="E20" t="n">
-        <v>1.680493591656133</v>
+        <v>1.918932847975427</v>
       </c>
       <c r="F20" t="n">
-        <v>14.12716278372164</v>
+        <v>1.415934280000001</v>
       </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.100117518</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.918932847975427</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.918932847975427</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.918932847975427</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.415934280000001</v>
-      </c>
-      <c r="G21" t="inlineStr">
         <is>
           <t>O</t>
         </is>

--- a/scripts/correlation/metric_df/AOL_metrics.xlsx
+++ b/scripts/correlation/metric_df/AOL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted</t>
+          <t>SASA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_max</t>
+          <t>flexibility</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_sum</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>weighted_mean_flexibility</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conformation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -473,25 +488,40 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GalNAc</t>
+          <t>Fuc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.20510157</v>
+        <v>3.353676509894131</v>
       </c>
       <c r="C2" t="n">
-        <v>2.104865982788988</v>
+        <v>2.8801507987082</v>
       </c>
       <c r="D2" t="n">
-        <v>2.104865982788988</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.104865982788988</v>
+        <v>0.452</v>
       </c>
       <c r="F2" t="n">
-        <v>1.286544565567667</v>
+        <v>5.89</v>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -500,25 +530,40 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.35367651</v>
+        <v>3.205101569770718</v>
       </c>
       <c r="C3" t="n">
-        <v>2.12907997324471</v>
+        <v>2.105778298670959</v>
       </c>
       <c r="D3" t="n">
-        <v>2.12907997324471</v>
+        <v>0.9615850473936285</v>
       </c>
       <c r="E3" t="n">
-        <v>2.12907997324471</v>
+        <v>0.365</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6843510982235121</v>
+        <v>14.69</v>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -527,25 +572,40 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.336076836</v>
+        <v>3.353676509894131</v>
       </c>
       <c r="C4" t="n">
-        <v>1.879699471262461</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="D4" t="n">
-        <v>1.934499862432555</v>
+        <v>0.8943772289437723</v>
       </c>
       <c r="E4" t="n">
-        <v>3.759398942524922</v>
+        <v>0.451</v>
       </c>
       <c r="F4" t="n">
-        <v>1.044442319999999</v>
+        <v>4.05</v>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -554,79 +614,124 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.460031619</v>
+        <v>-0.3360768358032059</v>
       </c>
       <c r="C5" t="n">
-        <v>1.888273611267678</v>
+        <v>1.879699471262461</v>
       </c>
       <c r="D5" t="n">
-        <v>1.910583370180939</v>
+        <v>1.18917</v>
       </c>
       <c r="E5" t="n">
-        <v>3.776547222535355</v>
+        <v>0.479</v>
       </c>
       <c r="F5" t="n">
-        <v>2.578956608160815</v>
+        <v>4.61</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.360696993</v>
+        <v>-0.4600316185386486</v>
       </c>
       <c r="C6" t="n">
-        <v>2.273759042726899</v>
+        <v>1.888273611267678</v>
       </c>
       <c r="D6" t="n">
-        <v>2.273759042726899</v>
+        <v>2.409159665966597</v>
       </c>
       <c r="E6" t="n">
-        <v>2.273759042726899</v>
+        <v>0.4495</v>
       </c>
       <c r="F6" t="n">
-        <v>1.908781921807819</v>
+        <v>8.149999999999999</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.786197359</v>
+        <v>-0.3606969931911755</v>
       </c>
       <c r="C7" t="n">
-        <v>1.965284185598133</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="D7" t="n">
-        <v>2.170830920556838</v>
+        <v>2.228010532280105</v>
       </c>
       <c r="E7" t="n">
-        <v>3.930568371196265</v>
+        <v>0.426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8258490849084912</v>
+        <v>2.49</v>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -635,52 +740,82 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.460031619</v>
+        <v>1.786197359394819</v>
       </c>
       <c r="C8" t="n">
-        <v>1.955767986496258</v>
+        <v>1.965284185598133</v>
       </c>
       <c r="D8" t="n">
-        <v>1.955767986496258</v>
+        <v>0.838733873387339</v>
       </c>
       <c r="E8" t="n">
-        <v>1.955767986496258</v>
+        <v>0.4665</v>
       </c>
       <c r="F8" t="n">
-        <v>2.219634240000001</v>
+        <v>7.154999999999999</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.460031619</v>
+        <v>-0.4600316185386486</v>
       </c>
       <c r="C9" t="n">
-        <v>2.074553668654954</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="D9" t="n">
-        <v>2.074553668654954</v>
+        <v>2.63788</v>
       </c>
       <c r="E9" t="n">
-        <v>2.074553668654954</v>
+        <v>0.525</v>
       </c>
       <c r="F9" t="n">
-        <v>6.404429833333334</v>
+        <v>8.42</v>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -689,25 +824,40 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.460031619</v>
+        <v>-0.4600316185386486</v>
       </c>
       <c r="C10" t="n">
-        <v>1.669857997159468</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="D10" t="n">
-        <v>1.677303481074935</v>
+        <v>6.117766666666665</v>
       </c>
       <c r="E10" t="n">
-        <v>3.339715994318936</v>
+        <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>4.275120000000004</v>
+        <v>10.27</v>
       </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -716,187 +866,292 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.870700891</v>
+        <v>-0.4600316185386486</v>
       </c>
       <c r="C11" t="n">
-        <v>2.132314839689439</v>
+        <v>1.669857997159468</v>
       </c>
       <c r="D11" t="n">
-        <v>2.132314839689439</v>
+        <v>4.053566666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>2.132314839689439</v>
+        <v>0.4645</v>
       </c>
       <c r="F11" t="n">
-        <v>1.032800363369671</v>
+        <v>2.65</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.460031619</v>
+        <v>2.239364458968539</v>
       </c>
       <c r="C12" t="n">
-        <v>2.030365137387976</v>
+        <v>1.956577845743809</v>
       </c>
       <c r="D12" t="n">
-        <v>2.030365137387976</v>
+        <v>3.292720727927207</v>
       </c>
       <c r="E12" t="n">
-        <v>2.030365137387976</v>
+        <v>0.418</v>
       </c>
       <c r="F12" t="n">
-        <v>6.011923522352238</v>
+        <v>6.63</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.53933657</v>
+        <v>-0.0204863085372086</v>
       </c>
       <c r="C13" t="n">
-        <v>1.656675648076949</v>
+        <v>1.847296205066145</v>
       </c>
       <c r="D13" t="n">
-        <v>1.656675648076949</v>
+        <v>0.5957333333333329</v>
       </c>
       <c r="E13" t="n">
-        <v>1.656675648076949</v>
+        <v>0.431</v>
       </c>
       <c r="F13" t="n">
-        <v>24.56787435</v>
+        <v>6.9</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.677224031</v>
+        <v>0.8707008912107572</v>
       </c>
       <c r="C14" t="n">
-        <v>2.032631731546139</v>
+        <v>2.132314839689439</v>
       </c>
       <c r="D14" t="n">
-        <v>2.032631731546139</v>
+        <v>0.8014634796813008</v>
       </c>
       <c r="E14" t="n">
-        <v>2.032631731546139</v>
+        <v>0.475</v>
       </c>
       <c r="F14" t="n">
-        <v>16.30643722294437</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.332505378</v>
+        <v>-0.4600316185386486</v>
       </c>
       <c r="C15" t="n">
-        <v>2.196111397777991</v>
+        <v>2.030365137387976</v>
       </c>
       <c r="D15" t="n">
-        <v>2.196111397777991</v>
+        <v>5.810491049104911</v>
       </c>
       <c r="E15" t="n">
-        <v>2.196111397777991</v>
+        <v>0.442</v>
       </c>
       <c r="F15" t="n">
-        <v>17.01846274261463</v>
+        <v>5.28</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)[Fuc(a1-3)]Glc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.400185485</v>
+        <v>0.643068071538111</v>
       </c>
       <c r="C16" t="n">
-        <v>2.324045455484034</v>
+        <v>2.005647536563297</v>
       </c>
       <c r="D16" t="n">
-        <v>2.324045455484034</v>
+        <v>5.078409999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>2.324045455484034</v>
+        <v>0.448</v>
       </c>
       <c r="F16" t="n">
-        <v>2.108746819999999</v>
+        <v>6.734999999999999</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['1C4', '1C4']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)', 'Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.710748179</v>
+        <v>1.539336569725478</v>
       </c>
       <c r="C17" t="n">
-        <v>2.091318093705922</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="D17" t="n">
-        <v>2.091318093705922</v>
+        <v>24.5925</v>
       </c>
       <c r="E17" t="n">
-        <v>2.091318093705922</v>
+        <v>0.432</v>
       </c>
       <c r="F17" t="n">
-        <v>5.061231499999998</v>
+        <v>15.59</v>
       </c>
       <c r="G17" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -905,52 +1160,82 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.360696993</v>
+        <v>1.677224030985073</v>
       </c>
       <c r="C18" t="n">
-        <v>1.993078126869602</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="D18" t="n">
-        <v>1.993078126869602</v>
+        <v>17.06189381061894</v>
       </c>
       <c r="E18" t="n">
-        <v>1.993078126869602</v>
+        <v>0.471</v>
       </c>
       <c r="F18" t="n">
-        <v>3.604707245724574</v>
+        <v>4.38</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.470392839</v>
+        <v>1.470392839095681</v>
       </c>
       <c r="C19" t="n">
-        <v>1.680493591656133</v>
+        <v>1.949736047171382</v>
       </c>
       <c r="D19" t="n">
-        <v>1.680493591656133</v>
+        <v>14.62466666666667</v>
       </c>
       <c r="E19" t="n">
-        <v>1.680493591656133</v>
+        <v>0.464</v>
       </c>
       <c r="F19" t="n">
-        <v>14.12716278372164</v>
+        <v>1.98</v>
       </c>
       <c r="G19" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -959,25 +1244,418 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4362368796487185</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.66530716417993</v>
+      </c>
+      <c r="D20" t="n">
+        <v>35.6324</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.332505377836086</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.196111397777991</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16.7310602273106</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5.400185484994137</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.324045455484034</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.18288</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.84926745169163</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.29808814603166</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.503333333333334</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4.710748178696162</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.091318093705922</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.3316</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.3606969931911755</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.993078126869602</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.196894689468947</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.470392839095681</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.680493591656133</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.01643169016431</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.470392839095681</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.680813687621337</v>
+      </c>
+      <c r="D27" t="n">
+        <v>21.32665</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
           <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>-0.100117518</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="B28" t="n">
+        <v>-0.1001175180308234</v>
+      </c>
+      <c r="C28" t="n">
         <v>1.918932847975427</v>
       </c>
-      <c r="D20" t="n">
-        <v>1.918932847975427</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.918932847975427</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.415934280000001</v>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="D28" t="n">
+        <v>1.1562</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.4600316185386486</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.878598193210197</v>
+      </c>
+      <c r="D29" t="n">
+        <v>13.41128387161284</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['Fuc']</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
